--- a/TestData/OpenEmrData.xlsx
+++ b/TestData/OpenEmrData.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
